--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43557,6 +43557,41 @@
         <v>92300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>314800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43592,6 +43592,41 @@
         <v>314800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>276400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43627,6 +43627,41 @@
         <v>276400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>164500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43662,6 +43662,41 @@
         <v>164500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>101000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43697,6 +43697,41 @@
         <v>101000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>86400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43732,6 +43732,41 @@
         <v>86400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43767,6 +43767,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>30700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43802,6 +43802,41 @@
         <v>30700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>50200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43837,6 +43837,41 @@
         <v>50200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>63200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43872,6 +43872,41 @@
         <v>63200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>326200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43907,6 +43907,41 @@
         <v>326200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>48600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43942,6 +43942,41 @@
         <v>48600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>577100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43977,6 +43977,76 @@
         <v>577100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>209100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>184500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44047,6 +44047,76 @@
         <v>184500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>438900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>67000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44117,6 +44117,41 @@
         <v>67000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44152,6 +44152,41 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>70300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44187,6 +44187,41 @@
         <v>70300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>14800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44222,6 +44222,41 @@
         <v>14800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>313300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44257,6 +44257,76 @@
         <v>313300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>45500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44327,6 +44327,41 @@
         <v>45500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>125200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44362,6 +44362,41 @@
         <v>125200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>164100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1675"/>
+  <dimension ref="A1:I1676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59587,6 +59587,41 @@
         <v>164100</v>
       </c>
     </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1676" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>68600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1676"/>
+  <dimension ref="A1:I1677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59622,6 +59622,41 @@
         <v>68600</v>
       </c>
     </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1677" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>73400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1677"/>
+  <dimension ref="A1:I1678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59657,6 +59657,41 @@
         <v>73400</v>
       </c>
     </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1678" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>44800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1678"/>
+  <dimension ref="A1:I1679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59692,6 +59692,41 @@
         <v>44800</v>
       </c>
     </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1679" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>198600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1679"/>
+  <dimension ref="A1:I1680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59727,6 +59727,41 @@
         <v>198600</v>
       </c>
     </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1680" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>88000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1680"/>
+  <dimension ref="A1:I1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59762,6 +59762,41 @@
         <v>88000</v>
       </c>
     </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1681" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>324200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1681"/>
+  <dimension ref="A1:I1682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59797,6 +59797,41 @@
         <v>324200</v>
       </c>
     </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1682" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>154300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1682"/>
+  <dimension ref="A1:I1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59832,6 +59832,41 @@
         <v>154300</v>
       </c>
     </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1683" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>313200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1683"/>
+  <dimension ref="A1:I1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59867,6 +59867,41 @@
         <v>313200</v>
       </c>
     </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1684" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>250900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1684"/>
+  <dimension ref="A1:I1685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59902,6 +59902,41 @@
         <v>250900</v>
       </c>
     </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1685" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>607100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1685"/>
+  <dimension ref="A1:I1686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59937,6 +59937,41 @@
         <v>607100</v>
       </c>
     </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1686" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>162300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1686"/>
+  <dimension ref="A1:I1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59972,6 +59972,41 @@
         <v>162300</v>
       </c>
     </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1687" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>33300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1687"/>
+  <dimension ref="A1:I1688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60007,6 +60007,41 @@
         <v>33300</v>
       </c>
     </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1688" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>76700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1688"/>
+  <dimension ref="A1:I1689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60042,6 +60042,41 @@
         <v>76700</v>
       </c>
     </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1689" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9687.xlsx
+++ b/data/9687.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1689"/>
+  <dimension ref="A1:I1690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60077,6 +60077,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>IDEAL</t>
+        </is>
+      </c>
+      <c r="E1690" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>22800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
